--- a/133_GESTPROJ_HAYMOZ_Alexandre.xlsx
+++ b/133_GESTPROJ_HAYMOZ_Alexandre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\133 - HAY\EMF-Shelf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9614D04-C9FF-4185-BBA1-7D17A7B97E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0624831-12F7-48D0-8AED-0EB4B56A1558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>Planning</t>
   </si>
@@ -288,12 +288,33 @@
   <si>
     <t>EMF-Shelf</t>
   </si>
+  <si>
+    <t>Sequence System</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>Class Diagrams</t>
+  </si>
+  <si>
+    <t>Se connecter &amp; S'enregistrer</t>
+  </si>
+  <si>
+    <t>Gestion bibliothèque</t>
+  </si>
+  <si>
+    <t>Gestion des réservations</t>
+  </si>
+  <si>
+    <t>Connection</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +405,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -786,7 +814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -861,6 +889,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -900,8 +930,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1243,10 +1276,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1256,67 +1289,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
       <c r="O3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="47">
+      <c r="P3" s="49">
         <v>300233</v>
       </c>
-      <c r="Q3" s="49"/>
+      <c r="Q3" s="51"/>
     </row>
     <row r="4" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
       <c r="O4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1326,32 +1359,32 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="50" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="50" t="s">
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="52"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="18"/>
-      <c r="L7" s="50" t="s">
+      <c r="L7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="51"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="50" t="s">
+      <c r="M7" s="53"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="52"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
@@ -1412,16 +1445,16 @@
       <c r="C9" s="6"/>
       <c r="D9" s="11"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="53"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="11"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="42" t="s">
         <v>39</v>
       </c>
       <c r="L9" s="12"/>
@@ -1432,7 +1465,9 @@
       <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="B10" s="12"/>
       <c r="C10" s="7"/>
       <c r="D10" s="13"/>
@@ -1440,9 +1475,9 @@
       <c r="F10" s="7"/>
       <c r="G10" s="13"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="41"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="43"/>
       <c r="L10" s="12"/>
       <c r="M10" s="7"/>
       <c r="N10" s="13"/>
@@ -1450,20 +1485,20 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="13"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>11</v>
+    <row r="11" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="7"/>
       <c r="D11" s="13"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="13"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="41"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="43"/>
       <c r="L11" s="12"/>
       <c r="M11" s="7"/>
       <c r="N11" s="13"/>
@@ -1473,18 +1508,18 @@
     </row>
     <row r="12" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="7"/>
       <c r="D12" s="13"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="53"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="11"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="41"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="43"/>
       <c r="L12" s="12"/>
       <c r="M12" s="7"/>
       <c r="N12" s="13"/>
@@ -1494,18 +1529,18 @@
     </row>
     <row r="13" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="7"/>
       <c r="D13" s="13"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="11"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="55"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="41"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="43"/>
       <c r="L13" s="12"/>
       <c r="M13" s="7"/>
       <c r="N13" s="13"/>
@@ -1513,8 +1548,10 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="13"/>
     </row>
-    <row r="14" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="B14" s="12"/>
       <c r="C14" s="7"/>
       <c r="D14" s="13"/>
@@ -1522,9 +1559,9 @@
       <c r="F14" s="7"/>
       <c r="G14" s="13"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="41"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="43"/>
       <c r="L14" s="12"/>
       <c r="M14" s="7"/>
       <c r="N14" s="13"/>
@@ -1532,20 +1569,20 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>12</v>
+    <row r="15" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="7"/>
       <c r="D15" s="13"/>
       <c r="E15" s="12"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="41"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="43"/>
       <c r="L15" s="12"/>
       <c r="M15" s="7"/>
       <c r="N15" s="13"/>
@@ -1554,17 +1591,19 @@
       <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="A16" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="B16" s="12"/>
       <c r="C16" s="7"/>
       <c r="D16" s="13"/>
       <c r="E16" s="12"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="41"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="43"/>
       <c r="L16" s="12"/>
       <c r="M16" s="7"/>
       <c r="N16" s="13"/>
@@ -1572,8 +1611,10 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="B17" s="12"/>
       <c r="C17" s="7"/>
       <c r="D17" s="13"/>
@@ -1581,9 +1622,9 @@
       <c r="F17" s="7"/>
       <c r="G17" s="13"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="41"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="43"/>
       <c r="L17" s="12"/>
       <c r="M17" s="7"/>
       <c r="N17" s="13"/>
@@ -1592,27 +1633,29 @@
       <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="B18" s="12"/>
       <c r="C18" s="7"/>
       <c r="D18" s="13"/>
       <c r="E18" s="12"/>
       <c r="F18" s="7"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="7"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="6"/>
       <c r="N18" s="13"/>
       <c r="O18" s="12"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>13</v>
+    <row r="19" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="7"/>
@@ -1621,18 +1664,20 @@
       <c r="F19" s="7"/>
       <c r="G19" s="13"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="13"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="11"/>
       <c r="O19" s="12"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="B20" s="12"/>
       <c r="C20" s="7"/>
       <c r="D20" s="13"/>
@@ -1640,18 +1685,20 @@
       <c r="F20" s="7"/>
       <c r="G20" s="13"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="41"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="43"/>
       <c r="L20" s="12"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="12"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="10"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="B21" s="12"/>
       <c r="C21" s="7"/>
       <c r="D21" s="13"/>
@@ -1659,9 +1706,9 @@
       <c r="F21" s="7"/>
       <c r="G21" s="13"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="41"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="43"/>
       <c r="L21" s="12"/>
       <c r="M21" s="7"/>
       <c r="N21" s="13"/>
@@ -1670,7 +1717,9 @@
       <c r="Q21" s="13"/>
     </row>
     <row r="22" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="B22" s="12"/>
       <c r="C22" s="7"/>
       <c r="D22" s="13"/>
@@ -1678,19 +1727,19 @@
       <c r="F22" s="7"/>
       <c r="G22" s="13"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="41"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="43"/>
       <c r="L22" s="12"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="13"/>
+      <c r="N22" s="11"/>
       <c r="O22" s="12"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>14</v>
+    <row r="23" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="7"/>
@@ -1699,158 +1748,84 @@
       <c r="F23" s="7"/>
       <c r="G23" s="13"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="41"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="43"/>
       <c r="L23" s="12"/>
       <c r="M23" s="7"/>
       <c r="N23" s="13"/>
-      <c r="O23" s="12"/>
+      <c r="O23" s="10"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="13"/>
     </row>
     <row r="24" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="13"/>
+      <c r="A24" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="34"/>
     </row>
     <row r="25" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="34"/>
-    </row>
-    <row r="27" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
+      <c r="A25" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="39"/>
-    </row>
-    <row r="28" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="34"/>
-    </row>
-    <row r="29" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="34"/>
-    </row>
-    <row r="30" spans="1:17" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="39"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="16"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="K9:K30"/>
-    <mergeCell ref="I9:I30"/>
-    <mergeCell ref="J9:J30"/>
+    <mergeCell ref="K9:K26"/>
+    <mergeCell ref="I9:I26"/>
+    <mergeCell ref="J9:J26"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B4:M4"/>
@@ -1877,7 +1852,7 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1889,11 +1864,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2062,6 +2037,62 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004EEFC8B7315DA4449F69FE97A704FE57" ma:contentTypeVersion="39" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="50f196367aec8f37d0a398234b0f7b17">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc3645a1-58b5-4da5-acb4-f681c13b5e81" xmlns:ns3="3fb344db-9a83-4925-8457-d4a81a8233b7" xmlns:ns4="52c6fd7a-766c-4f84-9f35-2a37be325271" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78bd20473fe67c3676d1740625aa318f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
@@ -2503,62 +2534,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
   <ds:schemaRefs>
@@ -2568,6 +2543,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
+    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65228189-199F-4C24-973F-99C34CC432BB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2585,15 +2571,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
-    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/133_GESTPROJ_HAYMOZ_Alexandre.xlsx
+++ b/133_GESTPROJ_HAYMOZ_Alexandre.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\133 - HAY\EMF-Shelf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0624831-12F7-48D0-8AED-0EB4B56A1558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DD96D6-E24F-4D01-BA8A-AEDBAF3D13AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
-    <sheet name="Journal de travail" sheetId="2" r:id="rId2"/>
+    <sheet name="Journal de travail HAY" sheetId="2" r:id="rId2"/>
+    <sheet name="Journal de travail CLA" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>Planning</t>
   </si>
@@ -283,9 +284,6 @@
     <t>Architecture</t>
   </si>
   <si>
-    <t>Alexandre Haymoz et Nathan Clapasson</t>
-  </si>
-  <si>
     <t>EMF-Shelf</t>
   </si>
   <si>
@@ -308,6 +306,12 @@
   </si>
   <si>
     <t>Connection</t>
+  </si>
+  <si>
+    <t>Alexandre Haymoz</t>
+  </si>
+  <si>
+    <t>Clapasson Nathan</t>
   </si>
 </sst>
 </file>
@@ -891,50 +895,50 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1278,8 +1282,8 @@
   </sheetPr>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1289,67 +1293,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
       <c r="O3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="49">
+      <c r="P3" s="54">
         <v>300233</v>
       </c>
-      <c r="Q3" s="51"/>
+      <c r="Q3" s="56"/>
     </row>
     <row r="4" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
       <c r="O4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1359,32 +1363,32 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="52" t="s">
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="52" t="s">
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="18"/>
-      <c r="L7" s="52" t="s">
+      <c r="L7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="53"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="52" t="s">
+      <c r="M7" s="58"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="54"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="59"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
@@ -1448,13 +1452,13 @@
       <c r="F9" s="40"/>
       <c r="G9" s="11"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="42" t="s">
+      <c r="K9" s="47" t="s">
         <v>39</v>
       </c>
       <c r="L9" s="12"/>
@@ -1475,9 +1479,9 @@
       <c r="F10" s="7"/>
       <c r="G10" s="13"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="43"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="48"/>
       <c r="L10" s="12"/>
       <c r="M10" s="7"/>
       <c r="N10" s="13"/>
@@ -1494,11 +1498,11 @@
       <c r="D11" s="13"/>
       <c r="E11" s="12"/>
       <c r="F11" s="40"/>
-      <c r="G11" s="57"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="43"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="48"/>
       <c r="L11" s="12"/>
       <c r="M11" s="7"/>
       <c r="N11" s="13"/>
@@ -1517,9 +1521,9 @@
       <c r="F12" s="41"/>
       <c r="G12" s="11"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="43"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="48"/>
       <c r="L12" s="12"/>
       <c r="M12" s="7"/>
       <c r="N12" s="13"/>
@@ -1529,18 +1533,18 @@
     </row>
     <row r="13" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="7"/>
       <c r="D13" s="13"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="55"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="43"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="12"/>
       <c r="M13" s="7"/>
       <c r="N13" s="13"/>
@@ -1559,9 +1563,9 @@
       <c r="F14" s="7"/>
       <c r="G14" s="13"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="43"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="12"/>
       <c r="M14" s="7"/>
       <c r="N14" s="13"/>
@@ -1571,7 +1575,7 @@
     </row>
     <row r="15" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="7"/>
@@ -1580,9 +1584,9 @@
       <c r="F15" s="7"/>
       <c r="G15" s="11"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="43"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="48"/>
       <c r="L15" s="12"/>
       <c r="M15" s="7"/>
       <c r="N15" s="13"/>
@@ -1592,7 +1596,7 @@
     </row>
     <row r="16" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="7"/>
@@ -1601,9 +1605,9 @@
       <c r="F16" s="7"/>
       <c r="G16" s="11"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="43"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="48"/>
       <c r="L16" s="12"/>
       <c r="M16" s="7"/>
       <c r="N16" s="13"/>
@@ -1622,9 +1626,9 @@
       <c r="F17" s="7"/>
       <c r="G17" s="13"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="43"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="48"/>
       <c r="L17" s="12"/>
       <c r="M17" s="7"/>
       <c r="N17" s="13"/>
@@ -1634,7 +1638,7 @@
     </row>
     <row r="18" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="7"/>
@@ -1643,9 +1647,9 @@
       <c r="F18" s="7"/>
       <c r="G18" s="13"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="43"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="48"/>
       <c r="L18" s="10"/>
       <c r="M18" s="6"/>
       <c r="N18" s="13"/>
@@ -1655,7 +1659,7 @@
     </row>
     <row r="19" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="7"/>
@@ -1664,9 +1668,9 @@
       <c r="F19" s="7"/>
       <c r="G19" s="13"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="43"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="48"/>
       <c r="L19" s="10"/>
       <c r="M19" s="6"/>
       <c r="N19" s="11"/>
@@ -1676,7 +1680,7 @@
     </row>
     <row r="20" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="7"/>
@@ -1685,9 +1689,9 @@
       <c r="F20" s="7"/>
       <c r="G20" s="13"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="43"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="12"/>
       <c r="M20" s="6"/>
       <c r="N20" s="11"/>
@@ -1706,9 +1710,9 @@
       <c r="F21" s="7"/>
       <c r="G21" s="13"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="43"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="12"/>
       <c r="M21" s="7"/>
       <c r="N21" s="13"/>
@@ -1718,7 +1722,7 @@
     </row>
     <row r="22" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="7"/>
@@ -1727,9 +1731,9 @@
       <c r="F22" s="7"/>
       <c r="G22" s="13"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="43"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="48"/>
       <c r="L22" s="12"/>
       <c r="M22" s="7"/>
       <c r="N22" s="11"/>
@@ -1739,7 +1743,7 @@
     </row>
     <row r="23" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="7"/>
@@ -1748,9 +1752,9 @@
       <c r="F23" s="7"/>
       <c r="G23" s="13"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="43"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="48"/>
       <c r="L23" s="12"/>
       <c r="M23" s="7"/>
       <c r="N23" s="13"/>
@@ -1760,7 +1764,7 @@
     </row>
     <row r="24" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="32"/>
       <c r="C24" s="33"/>
@@ -1769,9 +1773,9 @@
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
       <c r="H24" s="32"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="43"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="48"/>
       <c r="L24" s="32"/>
       <c r="M24" s="33"/>
       <c r="N24" s="34"/>
@@ -1790,9 +1794,9 @@
       <c r="F25" s="33"/>
       <c r="G25" s="34"/>
       <c r="H25" s="32"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="43"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="48"/>
       <c r="L25" s="32"/>
       <c r="M25" s="33"/>
       <c r="N25" s="34"/>
@@ -1809,17 +1813,17 @@
       <c r="D26" s="16"/>
       <c r="E26" s="14"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="59"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="46"/>
       <c r="M26" s="15"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="59"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="46"/>
       <c r="P26" s="15"/>
-      <c r="Q26" s="58"/>
+      <c r="Q26" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1853,7 +1857,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,11 +1868,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -1876,7 +1880,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -1885,7 +1889,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -1908,9 +1912,187 @@
       <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="26"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="26"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="26"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="26"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="26"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="26">
+        <f>SUM(C8:C21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LModule 133&amp;RJournal de travail</oddHeader>
+    <oddFooter>&amp;C&amp;D&amp;R&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5868D787-30E3-4858-BB98-262122E70C08}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="63.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
         <v>45016</v>
       </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="26"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
       <c r="B9" s="22"/>
       <c r="C9" s="26"/>
     </row>
@@ -2037,62 +2219,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004EEFC8B7315DA4449F69FE97A704FE57" ma:contentTypeVersion="39" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="50f196367aec8f37d0a398234b0f7b17">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc3645a1-58b5-4da5-acb4-f681c13b5e81" xmlns:ns3="3fb344db-9a83-4925-8457-d4a81a8233b7" xmlns:ns4="52c6fd7a-766c-4f84-9f35-2a37be325271" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78bd20473fe67c3676d1740625aa318f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
@@ -2534,6 +2660,62 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
   <ds:schemaRefs>
@@ -2543,17 +2725,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
-    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65228189-199F-4C24-973F-99C34CC432BB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2571,4 +2742,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
+    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>